--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2860257.905340051</v>
+        <v>2856120.7480899</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8775458.314079002</v>
+        <v>8775458.314079003</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>35.54361781414437</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>219.987424765619</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>64.50612826256146</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>188.637488866203</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>259.6580847920586</v>
       </c>
       <c r="W5" t="n">
-        <v>229.7980220085241</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>120.3332554667399</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>101.549837276474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>208.2474868886332</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>126.4346518641191</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>63.1628130171261</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>178.8757728051408</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>85.08368458989422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444142</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>113.3048871355469</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>94.91529601901398</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>21.63824106824953</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>6.228861054224671</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>32.05158559392667</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.55707494718553</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187881</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>113.5028334418564</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>31.26260713376664</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.383781964454</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2526.436684143444</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2526.436684143444</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190805</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X2" t="n">
-        <v>1810.593301929725</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y2" t="n">
-        <v>1588.383781964454</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>846.306131908167</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>455.1316662333386</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>455.1316662333386</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>305.0150268210029</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.115628253778</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W4" t="n">
-        <v>1048.115628253778</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>857.5727102071085</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>636.7801310635783</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.635933406614</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.635933406614</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2300.058434670803</v>
       </c>
       <c r="W5" t="n">
-        <v>1996.775265382425</v>
+        <v>1947.289779400689</v>
       </c>
       <c r="X5" t="n">
-        <v>1996.775265382425</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y5" t="n">
-        <v>1606.635933406614</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.7955294637</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374698</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939397</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>904.8820361188227</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>535.9195191784111</v>
+        <v>1416.637639419811</v>
       </c>
       <c r="D8" t="n">
-        <v>535.9195191784111</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>535.9195191784111</v>
+        <v>672.583688214816</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>261.5977834252084</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4816,40 +4816,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182944</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.481876182944</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080694</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.8338829770711</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>770.8338829770711</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.327782578335</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.327782578335</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.338231680317</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.5456525367873</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5062,13 +5062,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5126,19 +5126,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5366,13 +5366,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>695.5020655703109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,16 +5788,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.4916164683283</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>754.5554335404214</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>604.4387941280856</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>604.4387941280856</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>457.5488466301753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>290.3527473450552</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
         <v>378.192580311172</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>115.6734722078199</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2951.54259528685</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2782.606412358944</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.489772946608</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2484.576679364215</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4634.751540034345</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4415.150075057287</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4126.074848401485</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3871.390360195598</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3581.973190158637</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3353.98363926062</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3133.19106011709</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,28 +6697,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.011051783227</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.550723916711</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,61 +7153,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,19 +7730,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3227.225672628157</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>3058.28948970025</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>2908.172850287915</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>2760.259756705521</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>4401.757925742791</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>4147.073437536905</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>3857.656267499944</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>3629.666716601927</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>3408.874137458397</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>255.8421700460951</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.36925650589473</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.4490126143854</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>83.27114962944307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>55.21102825632967</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>26.98982571067694</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>191.2691783702302</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.1765892730636</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>220.0860577299013</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>136.2749052347518</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>35.11263957635596</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>114.1584408891646</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -26079,7 +26079,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>773913.2777058951</v>
+        <v>773913.277705895</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>773913.2777058951</v>
+        <v>773913.277705895</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>773913.2777058951</v>
+        <v>773913.277705895</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934037</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934037</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934037</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380343</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
         <v>665895.944744255</v>
@@ -26349,13 +26349,13 @@
         <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>1.148216253057293e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
-      <c r="C4" t="n">
-        <v>134318.0002618638</v>
-      </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26435,13 +26435,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731951</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26450,10 +26450,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732026</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732028</v>
+        <v>8117.312426731907</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-664648.0961395939</v>
+        <v>-664648.096139594</v>
       </c>
       <c r="C6" t="n">
-        <v>450103.687436325</v>
+        <v>450103.6874363253</v>
       </c>
       <c r="D6" t="n">
-        <v>450103.687436325</v>
+        <v>450103.6874363254</v>
       </c>
       <c r="E6" t="n">
-        <v>49170.66086906999</v>
+        <v>48823.28161471295</v>
       </c>
       <c r="F6" t="n">
-        <v>556656.1024936159</v>
+        <v>556308.7232392587</v>
       </c>
       <c r="G6" t="n">
-        <v>556656.1024936157</v>
+        <v>556308.7232392589</v>
       </c>
       <c r="H6" t="n">
-        <v>556656.1024936159</v>
+        <v>556308.7232392589</v>
       </c>
       <c r="I6" t="n">
-        <v>556656.1024936164</v>
+        <v>556308.7232392589</v>
       </c>
       <c r="J6" t="n">
-        <v>389050.9246836331</v>
+        <v>388703.5454292761</v>
       </c>
       <c r="K6" t="n">
-        <v>556656.1024936161</v>
+        <v>556308.7232392589</v>
       </c>
       <c r="L6" t="n">
-        <v>556656.1024936161</v>
+        <v>556308.7232392591</v>
       </c>
       <c r="M6" t="n">
-        <v>424048.8087646891</v>
+        <v>423701.4295103322</v>
       </c>
       <c r="N6" t="n">
-        <v>556656.1024936157</v>
+        <v>556308.7232392589</v>
       </c>
       <c r="O6" t="n">
-        <v>556656.1024936158</v>
+        <v>556308.7232392592</v>
       </c>
       <c r="P6" t="n">
-        <v>556656.1024936158</v>
+        <v>556308.723239259</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>87.90859758464998</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.2505138904346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>187.6315150612666</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>37.07216652283418</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>68.09417367807634</v>
       </c>
       <c r="W5" t="n">
-        <v>119.4429467088889</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>46.91356563188793</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>305.3262084652374</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>203.3002158843207</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.39732831781824</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>300.768778117042</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>553.5225306839452</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>436.2707275254367</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>280.048785629427</v>
+        <v>443.0068759113666</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>302.9297349452399</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>169.4270660337087</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427319</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2856120.7480899</v>
+        <v>2857881.278392686</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>35.54361781414437</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.059824669810291</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>64.50612826256146</v>
+        <v>230.8127283073653</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>259.6580847920586</v>
+        <v>233.6967540543195</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.98074812542853</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>208.2474868886332</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>196.6997841156795</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.8757728051408</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514041</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>32.05158559392667</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187881</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>42.53134576113725</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>113.5028334418564</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U46" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>438.8191504929254</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>69.85663355251364</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>69.85663355251364</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2526.436684143444</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2526.436684143444</v>
+        <v>2559.248596410448</v>
       </c>
       <c r="U2" t="n">
-        <v>2272.855623407624</v>
+        <v>2305.667535674628</v>
       </c>
       <c r="V2" t="n">
-        <v>1941.792736064053</v>
+        <v>1974.604648331057</v>
       </c>
       <c r="W2" t="n">
-        <v>1589.024080793939</v>
+        <v>1621.835993060943</v>
       </c>
       <c r="X2" t="n">
-        <v>1215.558322532859</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="Y2" t="n">
-        <v>825.4189905570472</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4488,25 +4488,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.288414758779</v>
+        <v>1403.301950067057</v>
       </c>
       <c r="W4" t="n">
-        <v>1281.871244721818</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.881693823801</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>797.0848490996759</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>428.1223321592641</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251364</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
         <v>62.91113280331017</v>
@@ -4567,7 +4567,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
@@ -4603,16 +4603,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2300.058434670803</v>
+        <v>2326.28200107256</v>
       </c>
       <c r="W5" t="n">
-        <v>1947.289779400689</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="X5" t="n">
-        <v>1573.824021139609</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y5" t="n">
-        <v>1183.684689163798</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4725,16 +4725,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4752,13 +4752,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V7" t="n">
         <v>1584.950414897297</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360222</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.637639419811</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.37194081306</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>672.583688214816</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252084</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
         <v>51.24678656800312</v>
@@ -4804,10 +4804,10 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4819,7 +4819,7 @@
         <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764998</v>
@@ -4846,10 +4846,10 @@
         <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400156</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424344</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800312</v>
@@ -4886,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4962,16 +4962,16 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5600,13 +5600,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5706,13 +5706,13 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
         <v>974.1018203925706</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075818</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>971.4076946508442</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1656.010514870942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6943,22 +6943,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
         <v>632.7243904253734</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.9556134883071081</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5911984019043</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>114.3555089013352</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878343</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>47.4369174006907</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228752</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>220.0860577299013</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>106.0841272570751</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>35.11263957635596</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U46" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>773913.277705895</v>
+        <v>773913.2777058951</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>773913.277705895</v>
+        <v>773913.2777058951</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380343</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.148216253057293e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
@@ -26453,7 +26453,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731907</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984472</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984472</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-664648.096139594</v>
+        <v>-664648.0961395942</v>
       </c>
       <c r="C6" t="n">
-        <v>450103.6874363253</v>
+        <v>450103.6874363255</v>
       </c>
       <c r="D6" t="n">
-        <v>450103.6874363254</v>
+        <v>450103.687436325</v>
       </c>
       <c r="E6" t="n">
-        <v>48823.28161471295</v>
+        <v>49135.9229436344</v>
       </c>
       <c r="F6" t="n">
-        <v>556308.7232392587</v>
+        <v>556621.3645681803</v>
       </c>
       <c r="G6" t="n">
-        <v>556308.7232392589</v>
+        <v>556621.3645681803</v>
       </c>
       <c r="H6" t="n">
-        <v>556308.7232392589</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="I6" t="n">
-        <v>556308.7232392589</v>
+        <v>556621.3645681806</v>
       </c>
       <c r="J6" t="n">
-        <v>388703.5454292761</v>
+        <v>389016.1867581977</v>
       </c>
       <c r="K6" t="n">
-        <v>556308.7232392589</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="L6" t="n">
-        <v>556308.7232392591</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="M6" t="n">
-        <v>423701.4295103322</v>
+        <v>424014.0708392534</v>
       </c>
       <c r="N6" t="n">
-        <v>556308.7232392589</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="O6" t="n">
-        <v>556308.7232392592</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="P6" t="n">
-        <v>556308.723239259</v>
+        <v>556621.3645681803</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26798,7 +26798,7 @@
         <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>87.90859758464998</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>203.5983603104235</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>187.6315150612666</v>
+        <v>21.32491501646271</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>68.09417367807634</v>
+        <v>94.05550441581545</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27824,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>143.6817122363089</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>203.3002158843207</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>173.0313165627896</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,7 +31846,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>336.3802954844301</v>
       </c>
       <c r="P3" t="n">
-        <v>436.2707275254367</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391854</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113666</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
